--- a/statistics/HistoricalDistanceData/historical_distance/Q56043189-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q56043189-en.xlsx
@@ -31,58 +31,58 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Jury finds N.B. shooter Matthew Raymond not criminally responsible for four killings</t>
+  </si>
+  <si>
+    <t>P.E.I. residents in Fredericton react to shooting in New Brunswick capital</t>
+  </si>
+  <si>
+    <t>Yarmouth boy's Hallelujah cover for Fredericton shooting victims is viral hit</t>
+  </si>
+  <si>
     <t>Accused in Fredericton shooting described as ‘polite and pleasant’, motive still unclear</t>
   </si>
   <si>
-    <t>Yarmouth boy's Hallelujah cover for Fredericton shooting victims is viral hit</t>
-  </si>
-  <si>
-    <t>P.E.I. residents in Fredericton react to shooting in New Brunswick capital</t>
-  </si>
-  <si>
     <t>‘I saw 3 bodies laying there’: Witnesses describe chaos in fatal Fredericton shooting</t>
   </si>
   <si>
-    <t>Jury finds N.B. shooter Matthew Raymond not criminally responsible for four killings</t>
+    <t>2020-11-20T06:11:00UTC</t>
+  </si>
+  <si>
+    <t>2018-08-10T15:41:01UTC</t>
+  </si>
+  <si>
+    <t>2018-08-13T14:28:43UTC</t>
   </si>
   <si>
     <t>2018-08-12T07:41:50UTC</t>
   </si>
   <si>
-    <t>2018-08-13T14:28:43UTC</t>
-  </si>
-  <si>
-    <t>2018-08-10T15:41:01UTC</t>
-  </si>
-  <si>
     <t>2018-08-10T11:39:14UTC</t>
   </si>
   <si>
-    <t>2020-11-20T06:11:00UTC</t>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
+    <t>day_0</t>
   </si>
   <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_0</t>
-  </si>
-  <si>
-    <t>day_31_beyond</t>
+    <t>https://atlantic.ctvnews.ca/jury-finds-n-b-shooter-matthew-raymond-not-criminally-responsible-for-four-killings-1.5197334</t>
+  </si>
+  <si>
+    <t>http://www.journalpioneer.com/news/local/pei-residents-in-fredericton-react-to-shooting-in-new-brunswick-capital-232944/</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/nova-scotia/fredericton-shooting-joshua-cochrane-hallelujah-tribute-1.4783017</t>
   </si>
   <si>
     <t>https://globalnews.ca/news/4383367/fredericton-shooting-accused-motive/</t>
   </si>
   <si>
-    <t>https://www.cbc.ca/news/canada/nova-scotia/fredericton-shooting-joshua-cochrane-hallelujah-tribute-1.4783017</t>
-  </si>
-  <si>
-    <t>http://www.journalpioneer.com/news/local/pei-residents-in-fredericton-react-to-shooting-in-new-brunswick-capital-232944/</t>
-  </si>
-  <si>
     <t>https://globalnews.ca/news/4380632/fredericton-shooting-police-witnesses/</t>
-  </si>
-  <si>
-    <t>https://atlantic.ctvnews.ca/jury-finds-n-b-shooter-matthew-raymond-not-criminally-responsible-for-four-killings-1.5197334</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>833</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -535,10 +535,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -552,10 +552,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
